--- a/data.xlsx
+++ b/data.xlsx
@@ -883,12 +883,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Norberto Murara Neto</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G16" t="n">
         <v>27</v>
@@ -1231,12 +1231,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kieran Trippier</t>
+          <t>William Saliba</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G28" t="n">
         <v>27</v>
@@ -1260,12 +1260,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>William Saliba</t>
+          <t>Kieran Trippier</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G29" t="n">
         <v>27</v>
@@ -1434,7 +1434,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Vitalii Mykolenko</t>
+          <t>James Tarkowski</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -883,12 +883,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Norberto Murara Neto</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G16" t="n">
         <v>27</v>
@@ -1231,12 +1231,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>William Saliba</t>
+          <t>Kieran Trippier</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G28" t="n">
         <v>27</v>
@@ -1260,12 +1260,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Kieran Trippier</t>
+          <t>William Saliba</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G29" t="n">
         <v>27</v>
@@ -1434,7 +1434,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>James Tarkowski</t>
+          <t>Vitalii Mykolenko</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,28 +497,28 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Bukayo Saka</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,28 +526,28 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="G3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pascal Groß</t>
+          <t>Douglas Luiz Soares de Paulo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -555,28 +555,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Douglas Luiz Soares de Paulo</t>
+          <t>Pascal Groß</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         <v>85</v>
       </c>
       <c r="G6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -631,10 +631,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>61</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>57</v>
       </c>
       <c r="G9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -729,28 +729,28 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bukayo Saka</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="G11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bernd Leno</t>
+          <t>Alphonse Areola</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -787,28 +787,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alphonse Areola</t>
+          <t>André Onana</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>André Onana</t>
+          <t>Bernd Leno</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>48</v>
       </c>
       <c r="G14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -877,25 +877,25 @@
         <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Norberto Murara Neto</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -903,28 +903,28 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>João Pedro Junqueira de Jesus</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -950,10 +950,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -964,25 +964,25 @@
         <v>75</v>
       </c>
       <c r="G18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1048,10 +1048,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1164,28 +1164,28 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Elijah Adebayo</t>
+          <t>João Pedro Junqueira de Jesus</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1193,28 +1193,28 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Oleksandr Zinchenko</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1225,25 +1225,25 @@
         <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kieran Trippier</t>
+          <t>Benjamin White</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1251,10 +1251,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1280,28 +1280,28 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Benjamin White</t>
+          <t>Kieran Trippier</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -1330,7 +1330,7 @@
         <v>103</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>85</v>
       </c>
       <c r="G31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -1356,10 +1356,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>53</v>
       </c>
       <c r="G32" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>64</v>
       </c>
       <c r="G33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1428,25 +1428,25 @@
         <v>54</v>
       </c>
       <c r="G34" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Vitalii Mykolenko</t>
+          <t>Oleksandr Zinchenko</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G35" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45355</v>
+        <v>45364</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>57</v>
       </c>
       <c r="G36" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -37,208 +37,208 @@
     <t>GW</t>
   </si>
   <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>points_per_game</t>
+  </si>
+  <si>
+    <t>Richarlison de Andrade</t>
+  </si>
+  <si>
+    <t>Mohamed Salah</t>
+  </si>
+  <si>
+    <t>Jarrod Bowen</t>
+  </si>
+  <si>
+    <t>Mohammed Kudus</t>
+  </si>
+  <si>
+    <t>Pascal Groß</t>
+  </si>
+  <si>
+    <t>Scott McTominay</t>
+  </si>
+  <si>
+    <t>Hwang Hee-chan</t>
+  </si>
+  <si>
+    <t>Kai Havertz</t>
+  </si>
+  <si>
+    <t>Moussa Diaby</t>
+  </si>
+  <si>
+    <t>James Maddison</t>
+  </si>
+  <si>
+    <t>Phil Foden</t>
+  </si>
+  <si>
+    <t>Bukayo Saka</t>
+  </si>
+  <si>
+    <t>Leon Bailey</t>
+  </si>
+  <si>
+    <t>Son Heung-min</t>
+  </si>
+  <si>
     <t>Cole Palmer</t>
   </si>
   <si>
-    <t>Bukayo Saka</t>
-  </si>
-  <si>
-    <t>Rodrigo Hernandez</t>
-  </si>
-  <si>
-    <t>Kai Havertz</t>
-  </si>
-  <si>
-    <t>Leon Bailey</t>
-  </si>
-  <si>
-    <t>James Ward-Prowse</t>
-  </si>
-  <si>
-    <t>Declan Rice</t>
-  </si>
-  <si>
-    <t>Martin Ødegaard</t>
-  </si>
-  <si>
-    <t>Anthony Gordon</t>
-  </si>
-  <si>
-    <t>Pascal Groß</t>
-  </si>
-  <si>
-    <t>Douglas Luiz Soares de Paulo</t>
-  </si>
-  <si>
-    <t>Jarrod Bowen</t>
-  </si>
-  <si>
-    <t>Phil Foden</t>
-  </si>
-  <si>
-    <t>Son Heung-min</t>
-  </si>
-  <si>
-    <t>Mohamed Salah</t>
-  </si>
-  <si>
-    <t>Bernd Leno</t>
+    <t>Alisson Ramses Becker</t>
+  </si>
+  <si>
+    <t>Alphonse Areola</t>
   </si>
   <si>
     <t>André Onana</t>
   </si>
   <si>
-    <t>Jordan Pickford</t>
-  </si>
-  <si>
     <t>Norberto Murara Neto</t>
   </si>
   <si>
-    <t>Alphonse Areola</t>
+    <t>David Raya Martin</t>
+  </si>
+  <si>
+    <t>João Pedro Junqueira de Jesus</t>
+  </si>
+  <si>
+    <t>Ollie Watkins</t>
+  </si>
+  <si>
+    <t>Darwin Núñez Ribeiro</t>
+  </si>
+  <si>
+    <t>Alexander Isak</t>
+  </si>
+  <si>
+    <t>Antoine Semenyo</t>
+  </si>
+  <si>
+    <t>Julián Álvarez</t>
+  </si>
+  <si>
+    <t>Carlton Morris</t>
+  </si>
+  <si>
+    <t>Dominic Solanke</t>
+  </si>
+  <si>
+    <t>Jean-Philippe Mateta</t>
   </si>
   <si>
     <t>Matheus Santos Carneiro Da Cunha</t>
   </si>
   <si>
+    <t>Rasmus Højlund</t>
+  </si>
+  <si>
+    <t>Nicolas Jackson</t>
+  </si>
+  <si>
+    <t>Odsonne Edouard</t>
+  </si>
+  <si>
     <t>Erling Haaland</t>
   </si>
   <si>
-    <t>Dominic Solanke</t>
-  </si>
-  <si>
-    <t>Julián Álvarez</t>
-  </si>
-  <si>
-    <t>Carlton Morris</t>
-  </si>
-  <si>
-    <t>Darwin Núñez Ribeiro</t>
-  </si>
-  <si>
-    <t>Alexander Isak</t>
-  </si>
-  <si>
-    <t>Nicolas Jackson</t>
-  </si>
-  <si>
-    <t>Chris Wood</t>
-  </si>
-  <si>
     <t>Yoane Wissa</t>
   </si>
   <si>
-    <t>João Pedro Junqueira de Jesus</t>
-  </si>
-  <si>
-    <t>Antoine Semenyo</t>
-  </si>
-  <si>
-    <t>Jean-Philippe Mateta</t>
-  </si>
-  <si>
-    <t>Ollie Watkins</t>
-  </si>
-  <si>
-    <t>Elijah Adebayo</t>
-  </si>
-  <si>
-    <t>Alfie Doughty</t>
+    <t>Dan Burn</t>
+  </si>
+  <si>
+    <t>Trent Alexander-Arnold</t>
+  </si>
+  <si>
+    <t>Oleksandr Zinchenko</t>
   </si>
   <si>
     <t>Benjamin White</t>
   </si>
   <si>
+    <t>Nathan Aké</t>
+  </si>
+  <si>
+    <t>Kieran Trippier</t>
+  </si>
+  <si>
+    <t>Gabriel dos Santos Magalhães</t>
+  </si>
+  <si>
+    <t>Cristian Romero</t>
+  </si>
+  <si>
+    <t>Joe Gomez</t>
+  </si>
+  <si>
     <t>William Saliba</t>
   </si>
   <si>
-    <t>Kieran Trippier</t>
-  </si>
-  <si>
-    <t>Trent Alexander-Arnold</t>
-  </si>
-  <si>
-    <t>Gabriel dos Santos Magalhães</t>
-  </si>
-  <si>
     <t>Virgil van Dijk</t>
   </si>
   <si>
-    <t>Fabian Schär</t>
+    <t>Manuel Akanji</t>
   </si>
   <si>
     <t>Pedro Porro</t>
   </si>
   <si>
-    <t>Cristian Romero</t>
-  </si>
-  <si>
-    <t>Oleksandr Zinchenko</t>
-  </si>
-  <si>
-    <t>Antonee Robinson</t>
-  </si>
-  <si>
-    <t>Joachim Andersen</t>
-  </si>
-  <si>
-    <t>James Tarkowski</t>
+    <t>Marcos Senesi</t>
   </si>
   <si>
     <t>Vitalii Mykolenko</t>
   </si>
   <si>
+    <t>Spurs</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Man Utd</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
     <t>Chelsea</t>
   </si>
   <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>West Ham</t>
+    <t>Bournemouth</t>
   </si>
   <si>
     <t>Newcastle</t>
   </si>
   <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Spurs</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Man Utd</t>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Brentford</t>
   </si>
   <si>
     <t>Everton</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Nott'm Forest</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
   </si>
   <si>
     <t>MID</t>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,16 +640,22 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2">
         <v>45368</v>
@@ -658,21 +664,27 @@
         <v>75</v>
       </c>
       <c r="F2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>1341</v>
+      </c>
+      <c r="I2">
+        <v>7.248322147651006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2">
         <v>45368</v>
@@ -681,21 +693,27 @@
         <v>75</v>
       </c>
       <c r="F3">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="G3">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>1786</v>
+      </c>
+      <c r="I3">
+        <v>8.465845464725643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="D4" s="2">
         <v>45368</v>
@@ -704,21 +722,27 @@
         <v>75</v>
       </c>
       <c r="F4">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>2427</v>
+      </c>
+      <c r="I4">
+        <v>5.525339925834364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2">
         <v>45368</v>
@@ -727,21 +751,27 @@
         <v>75</v>
       </c>
       <c r="F5">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>1591</v>
+      </c>
+      <c r="I5">
+        <v>5.543683218101823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2">
         <v>45368</v>
@@ -750,21 +780,27 @@
         <v>75</v>
       </c>
       <c r="F6">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>2122</v>
+      </c>
+      <c r="I6">
+        <v>5.598491988689915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2">
         <v>45368</v>
@@ -773,21 +809,27 @@
         <v>75</v>
       </c>
       <c r="F7">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>1374</v>
+      </c>
+      <c r="I7">
+        <v>5.698689956331878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C8">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2">
         <v>45368</v>
@@ -796,21 +838,27 @@
         <v>75</v>
       </c>
       <c r="F8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>1618</v>
+      </c>
+      <c r="I8">
+        <v>5.840543881334981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D9" s="2">
         <v>45368</v>
@@ -819,21 +867,27 @@
         <v>75</v>
       </c>
       <c r="F9">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>1683</v>
+      </c>
+      <c r="I9">
+        <v>5.882352941176471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C10">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2">
         <v>45368</v>
@@ -842,21 +896,27 @@
         <v>75</v>
       </c>
       <c r="F10">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>1519</v>
+      </c>
+      <c r="I10">
+        <v>6.043449637919684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2">
         <v>45368</v>
@@ -865,21 +925,27 @@
         <v>75</v>
       </c>
       <c r="F11">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H11">
+        <v>1398</v>
+      </c>
+      <c r="I11">
+        <v>6.051502145922747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C12">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D12" s="2">
         <v>45368</v>
@@ -888,21 +954,27 @@
         <v>75</v>
       </c>
       <c r="F12">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>2220</v>
+      </c>
+      <c r="I12">
+        <v>6.486486486486487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="D13" s="2">
         <v>45368</v>
@@ -911,21 +983,27 @@
         <v>75</v>
       </c>
       <c r="F13">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G13">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H13">
+        <v>2175</v>
+      </c>
+      <c r="I13">
+        <v>7.365517241379311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C14">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="D14" s="2">
         <v>45368</v>
@@ -934,18 +1012,24 @@
         <v>75</v>
       </c>
       <c r="F14">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <v>1397</v>
+      </c>
+      <c r="I14">
+        <v>7.408732999284179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>168</v>
@@ -962,16 +1046,22 @@
       <c r="G15">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>1987</v>
+      </c>
+      <c r="I15">
+        <v>7.609461499748365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C16">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="D16" s="2">
         <v>45368</v>
@@ -980,21 +1070,27 @@
         <v>75</v>
       </c>
       <c r="F16">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="G16">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>1654</v>
+      </c>
+      <c r="I16">
+        <v>7.672309552599758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C17">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2">
         <v>45368</v>
@@ -1003,21 +1099,27 @@
         <v>76</v>
       </c>
       <c r="F17">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H17">
+        <v>1890</v>
+      </c>
+      <c r="I17">
+        <v>4.142857142857143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C18">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2">
         <v>45368</v>
@@ -1026,21 +1128,27 @@
         <v>76</v>
       </c>
       <c r="F18">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G18">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>2205</v>
+      </c>
+      <c r="I18">
+        <v>4.244897959183674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2">
         <v>45368</v>
@@ -1049,15 +1157,21 @@
         <v>76</v>
       </c>
       <c r="F19">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G19">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>2430</v>
+      </c>
+      <c r="I19">
+        <v>3.888888888888889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
@@ -1077,16 +1191,22 @@
       <c r="G20">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>2250</v>
+      </c>
+      <c r="I20">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C21">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2">
         <v>45368</v>
@@ -1095,21 +1215,27 @@
         <v>76</v>
       </c>
       <c r="F21">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G21">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>1980</v>
+      </c>
+      <c r="I21">
+        <v>3.954545454545455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C22">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2">
         <v>45368</v>
@@ -1118,21 +1244,27 @@
         <v>77</v>
       </c>
       <c r="F22">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G22">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>1385</v>
+      </c>
+      <c r="I22">
+        <v>5.393501805054152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C23">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="D23" s="2">
         <v>45368</v>
@@ -1141,21 +1273,27 @@
         <v>77</v>
       </c>
       <c r="F23">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="G23">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <v>2479</v>
+      </c>
+      <c r="I23">
+        <v>6.789027833803953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C24">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D24" s="2">
         <v>45368</v>
@@ -1164,21 +1302,27 @@
         <v>77</v>
       </c>
       <c r="F24">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G24">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>1488</v>
+      </c>
+      <c r="I24">
+        <v>6.713709677419355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C25">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2">
         <v>45368</v>
@@ -1187,21 +1331,27 @@
         <v>77</v>
       </c>
       <c r="F25">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G25">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>1310</v>
+      </c>
+      <c r="I25">
+        <v>6.526717557251908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2">
         <v>45368</v>
@@ -1210,21 +1360,27 @@
         <v>77</v>
       </c>
       <c r="F26">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G26">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H26">
+        <v>1329</v>
+      </c>
+      <c r="I26">
+        <v>5.620767494356659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D27" s="2">
         <v>45368</v>
@@ -1233,21 +1389,27 @@
         <v>77</v>
       </c>
       <c r="F27">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>2128</v>
+      </c>
+      <c r="I27">
+        <v>5.49812030075188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C28">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2">
         <v>45368</v>
@@ -1256,21 +1418,27 @@
         <v>77</v>
       </c>
       <c r="F28">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="G28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H28">
+        <v>1959</v>
+      </c>
+      <c r="I28">
+        <v>5.283307810107197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C29">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="D29" s="2">
         <v>45368</v>
@@ -1279,21 +1447,27 @@
         <v>77</v>
       </c>
       <c r="F29">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>2405</v>
+      </c>
+      <c r="I29">
+        <v>5.164241164241164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
       </c>
       <c r="C30">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2">
         <v>45368</v>
@@ -1302,21 +1476,27 @@
         <v>77</v>
       </c>
       <c r="F30">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H30">
+        <v>1417</v>
+      </c>
+      <c r="I30">
+        <v>5.144671841919549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C31">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D31" s="2">
         <v>45368</v>
@@ -1325,21 +1505,27 @@
         <v>77</v>
       </c>
       <c r="F31">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H31">
+        <v>1962</v>
+      </c>
+      <c r="I31">
+        <v>4.954128440366973</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
       <c r="C32">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2">
         <v>45368</v>
@@ -1348,21 +1534,27 @@
         <v>77</v>
       </c>
       <c r="F32">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>1463</v>
+      </c>
+      <c r="I32">
+        <v>4.79835953520164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D33" s="2">
         <v>45368</v>
@@ -1371,21 +1563,27 @@
         <v>77</v>
       </c>
       <c r="F33">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G33">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>1725</v>
+      </c>
+      <c r="I33">
+        <v>4.539130434782609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C34">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D34" s="2">
         <v>45368</v>
@@ -1394,21 +1592,27 @@
         <v>77</v>
       </c>
       <c r="F34">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G34">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>1415</v>
+      </c>
+      <c r="I34">
+        <v>4.325088339222614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C35">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="D35" s="2">
         <v>45368</v>
@@ -1417,21 +1621,27 @@
         <v>77</v>
       </c>
       <c r="F35">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="G35">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H35">
+        <v>1832</v>
+      </c>
+      <c r="I35">
+        <v>7.565502183406114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2">
         <v>45368</v>
@@ -1440,21 +1650,27 @@
         <v>77</v>
       </c>
       <c r="F36">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G36">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>1817</v>
+      </c>
+      <c r="I36">
+        <v>4.210236653824986</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2">
         <v>45368</v>
@@ -1463,21 +1679,27 @@
         <v>78</v>
       </c>
       <c r="F37">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G37">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H37">
+        <v>1757</v>
+      </c>
+      <c r="I37">
+        <v>3.790552077404667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C38">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D38" s="2">
         <v>45368</v>
@@ -1486,21 +1708,27 @@
         <v>78</v>
       </c>
       <c r="F38">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G38">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>1622</v>
+      </c>
+      <c r="I38">
+        <v>5.715166461159063</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C39">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D39" s="2">
         <v>45368</v>
@@ -1509,21 +1737,27 @@
         <v>78</v>
       </c>
       <c r="F39">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>1427</v>
+      </c>
+      <c r="I39">
+        <v>5.423966362999299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C40">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D40" s="2">
         <v>45368</v>
@@ -1532,21 +1766,27 @@
         <v>78</v>
       </c>
       <c r="F40">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G40">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>2043</v>
+      </c>
+      <c r="I40">
+        <v>5.242290748898679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C41">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D41" s="2">
         <v>45368</v>
@@ -1555,21 +1795,27 @@
         <v>78</v>
       </c>
       <c r="F41">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="G41">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>1635</v>
+      </c>
+      <c r="I41">
+        <v>4.513761467889908</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C42">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D42" s="2">
         <v>45368</v>
@@ -1578,21 +1824,27 @@
         <v>78</v>
       </c>
       <c r="F42">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>2163</v>
+      </c>
+      <c r="I42">
+        <v>4.49375866851595</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
         <v>65</v>
       </c>
       <c r="C43">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D43" s="2">
         <v>45368</v>
@@ -1601,21 +1853,27 @@
         <v>78</v>
       </c>
       <c r="F43">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G43">
         <v>28</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>2084</v>
+      </c>
+      <c r="I43">
+        <v>4.448176583493282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C44">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D44" s="2">
         <v>45368</v>
@@ -1624,21 +1882,27 @@
         <v>78</v>
       </c>
       <c r="F44">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G44">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H44">
+        <v>1800</v>
+      </c>
+      <c r="I44">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C45">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D45" s="2">
         <v>45368</v>
@@ -1647,21 +1911,27 @@
         <v>78</v>
       </c>
       <c r="F45">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G45">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H45">
+        <v>1352</v>
+      </c>
+      <c r="I45">
+        <v>4.326923076923078</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D46" s="2">
         <v>45368</v>
@@ -1670,21 +1940,27 @@
         <v>78</v>
       </c>
       <c r="F46">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G46">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H46">
+        <v>2430</v>
+      </c>
+      <c r="I46">
+        <v>4.148148148148149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C47">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D47" s="2">
         <v>45368</v>
@@ -1693,21 +1969,27 @@
         <v>78</v>
       </c>
       <c r="F47">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G47">
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>2187</v>
+      </c>
+      <c r="I47">
+        <v>4.11522633744856</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D48" s="2">
         <v>45368</v>
@@ -1716,21 +1998,27 @@
         <v>78</v>
       </c>
       <c r="F48">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G48">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H48">
+        <v>1587</v>
+      </c>
+      <c r="I48">
+        <v>4.026465028355387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C49">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D49" s="2">
         <v>45368</v>
@@ -1739,21 +2027,27 @@
         <v>78</v>
       </c>
       <c r="F49">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G49">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H49">
+        <v>2157</v>
+      </c>
+      <c r="I49">
+        <v>3.963838664812239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D50" s="2">
         <v>45368</v>
@@ -1767,13 +2061,19 @@
       <c r="G50">
         <v>28</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>1655</v>
+      </c>
+      <c r="I50">
+        <v>3.75226586102719</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C51">
         <v>85</v>
@@ -1789,6 +2089,12 @@
       </c>
       <c r="G51">
         <v>28</v>
+      </c>
+      <c r="H51">
+        <v>1977</v>
+      </c>
+      <c r="I51">
+        <v>3.869499241274659</v>
       </c>
     </row>
   </sheetData>
